--- a/biology/Microbiologie/Pasteurellales/Pasteurellales.xlsx
+++ b/biology/Microbiologie/Pasteurellales/Pasteurellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pasteurellales sont un ordre de bactéries à Gram négatif de la classe des Gammaproteobacteria. Son nom provient du genre Pasteurella qui est le genre type de cet ordre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pasteurellales sont un ordre de bactéries à Gram négatif de la classe des Gammaproteobacteria. Son nom provient du genre Pasteurella qui est le genre type de cet ordre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est proposé en 2005 par G.M. Garrity et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[1]. Il est validé la même année par une publication dans l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est proposé en 2005 par G.M. Garrity et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Il est validé la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (8 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (8 novembre 2022) :
 Pasteurellaceae Pohl 1981
 Psittacicellaceae Xin et al. 2019</t>
         </is>
